--- a/SealSystem.WebAPI/API使用说明.xlsx
+++ b/SealSystem.WebAPI/API使用说明.xlsx
@@ -7,7 +7,8 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
-    <sheet name="UserGroup" sheetId="1" r:id="rId1"/>
+    <sheet name="User" sheetId="3" r:id="rId1"/>
+    <sheet name="UserGroup" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="47">
   <si>
     <t>用户组</t>
   </si>
@@ -256,12 +257,40 @@
     <t>汉注:</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>User</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://.../api/user/login</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UserName:用户名  UserPwd:密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回一个token值,这个token要放到header中,每次请求需要带上.用来表示每次是谁登录了.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>判断用户是登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Api使用流程:用户登录-&gt;获取token值-&gt;每次请求在文件头,带上token值-&gt;服务器就知道是哪个用户来访问了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -299,6 +328,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -320,7 +356,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -344,6 +380,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -626,9 +668,126 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="11.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="5.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="48.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.25" style="1" customWidth="1"/>
+    <col min="8" max="8" width="26.25" style="3" customWidth="1"/>
+    <col min="9" max="9" width="29.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="7"/>
+      <c r="E2" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H2" s="4">
+        <v>500</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="C3" s="6"/>
+      <c r="D3" s="8"/>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="C4" s="6"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="1"/>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="C5" s="6"/>
+      <c r="D5" s="8"/>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="C6" s="6"/>
+      <c r="D6" s="8"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A21:F21"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
